--- a/src/test/resources/testdata/Client/SGBOutbound.xlsx
+++ b/src/test/resources/testdata/Client/SGBOutbound.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF45656-55D1-4EBB-BDA7-01578E2A221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72787C3-0F7D-4FDF-A05F-00FE4B2EF26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'E-App Wizard Spec'!$A$1:$AX$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'E-App Wizard Spec'!$A$1:$AX$9</definedName>
     <definedName name="CommAge">[1]Lists!$D$15:$D$21</definedName>
     <definedName name="CommBased">[1]Lists!$G$15:$G$17</definedName>
     <definedName name="CommParty">[1]Lists!$A$16:$A$17</definedName>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="459">
   <si>
     <t>Date</t>
   </si>
@@ -539,9 +539,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>MM/dd/yyyy</t>
   </si>
   <si>
@@ -3514,6 +3511,83 @@
     <t>Page 1</t>
   </si>
   <si>
+    <t>//Party/Person/FirstName</t>
+  </si>
+  <si>
+    <t>//Party/Person/Gender</t>
+  </si>
+  <si>
+    <t>//Party/Person/Age</t>
+  </si>
+  <si>
+    <t>//Party/Person/BirthDate</t>
+  </si>
+  <si>
+    <t>piGender</t>
+  </si>
+  <si>
+    <t>piAge</t>
+  </si>
+  <si>
+    <t>piBirthDateDay piBirthDateMonth piBirthDateYear</t>
+  </si>
+  <si>
+    <t>piResidencePostalCode</t>
+  </si>
+  <si>
+    <t>piProposedInsEarned</t>
+  </si>
+  <si>
+    <t>piTelephoneHome</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Residence Address: Postal Code</t>
+  </si>
+  <si>
+    <t>Earned Income</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Page 8</t>
+  </si>
+  <si>
+    <t>1. Default = Blank.</t>
+  </si>
+  <si>
+    <t>//Party/Address/Zip</t>
+  </si>
+  <si>
+    <t>//FormInstance/FormResponse/ResponseText</t>
+  </si>
+  <si>
+    <t>//FormInstance/FormResponse/QuestionNumber=piProposedInsEarned</t>
+  </si>
+  <si>
+    <t>//Party/Phone/AreaCode,//Party/Phone/DialNumber</t>
+  </si>
+  <si>
+    <t>//Relation/RelationRoleCode=32-Insured,//Relation/RelationRoleCode=8-OLI_REL_OWNER</t>
+  </si>
+  <si>
+    <t>//Relation/RelationRoleCode=32-Insured,//Relation/RelationRoleCode=8-OLI_REL_OWNER
+//Party/Address/AddressTypeCode=tc-1</t>
+  </si>
+  <si>
+    <t>//Relation/RelationRoleCode=32-Insured,//Relation/RelationRoleCode=8-OLI_REL_OWNER
+//Party/Phone/PhoneTypeCode=tc-15</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
     <t>piLastName</t>
   </si>
   <si>
@@ -3523,110 +3597,16 @@
     <t>Required: last name</t>
   </si>
   <si>
-    <t>//Party/Person/FirstName</t>
-  </si>
-  <si>
-    <t>//Relation/RelationRoleCode=32-Insured,//Relation/RelationRoleCode=8-Owner</t>
-  </si>
-  <si>
     <t>//Party/Person/LastName</t>
   </si>
   <si>
-    <t>//Party/Person/Gender</t>
-  </si>
-  <si>
-    <t>//Party/Person/Age</t>
-  </si>
-  <si>
-    <t>//Party/Person/BirthDate</t>
-  </si>
-  <si>
-    <t>Complex Rule</t>
-  </si>
-  <si>
-    <t>piGender</t>
-  </si>
-  <si>
-    <t>piAge</t>
-  </si>
-  <si>
-    <t>piBirthDateDay piBirthDateMonth piBirthDateYear</t>
-  </si>
-  <si>
-    <t>piResidencePostalCode</t>
-  </si>
-  <si>
-    <t>piProposedInsEarned</t>
-  </si>
-  <si>
-    <t>piTelephoneHome</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>DOBEstimated</t>
-  </si>
-  <si>
-    <t>Residence Address: Postal Code</t>
-  </si>
-  <si>
-    <t>Earned Income</t>
-  </si>
-  <si>
-    <t>Home Phone</t>
-  </si>
-  <si>
-    <t>Page 8</t>
-  </si>
-  <si>
-    <t>1. Default = Blank.</t>
-  </si>
-  <si>
-    <t>BirthDate</t>
-  </si>
-  <si>
-    <t>ProductType</t>
-  </si>
-  <si>
-    <t>//Party/Address/Zip</t>
-  </si>
-  <si>
-    <t>//Relation/RelationRoleCode=32-Insured,//Relation/RelationRoleCode=8-Owner
-//Party/Address/AddressTypeCode=tc-1</t>
-  </si>
-  <si>
-    <t>//FormInstance/FormResponse/ResponseText</t>
-  </si>
-  <si>
-    <t>//FormInstance/FormResponse/QuestionNumber=piProposedInsEarned</t>
-  </si>
-  <si>
-    <t>//Relation/RelationRoleCode=32-Insured,//Relation/RelationRoleCode=8-Owner
-//Party/Phone/PhoneTypeCode=tc-15</t>
-  </si>
-  <si>
-    <t>//Party/Phone/AreaCode,//Party/Phone/DialNumber</t>
-  </si>
-  <si>
-    <t>//Party/Person/DOBEstimated,//Party/Person/BirthDate</t>
-  </si>
-  <si>
-    <t>1. If //Policy/ProductCode = 3 then Set //Policy/ProductType = Annuity
-2. If //Policy/ProductCode = 6 then Set //Policy/ProductType = Whole Life</t>
-  </si>
-  <si>
-    <t>SmokerStat</t>
-  </si>
-  <si>
-    <t>1. If (//Holding/Policy/ProductCode = 24 OR //Holding/Policy/ProductCode = 29 OR //Holding/Policy/ProductCode = 30) and (//Holding/Policy/Life/Coverage/LifeParticipant/UnderwritingClass = 1 OR //Holding/Policy/Life/Coverage/LifeParticipant/UnderwritingClass = 2) then verify Attribute //Holding/Policy/Life/Coverage/LifeParticipant/SmokerStat/tc</t>
-  </si>
-  <si>
-    <t>1. If //Party/Person/DOBEstimated=False then verify Format //Party/Person/BirthDate = yyyy-MM-dd 
-2. If //Party/Person/DOBEstimated=True then verify Format //Party/Person/BirthDate = yyyy</t>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>pieMailAddress</t>
+  </si>
+  <si>
+    <t>//Party/Person/Email</t>
   </si>
 </sst>
 </file>
@@ -4234,7 +4214,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4679,7 +4659,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5316,12 +5295,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C621C402-B2C8-40EA-BB1E-33FF49755F07}">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="104.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5382,10 +5361,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="153" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="152" t="s">
         <v>416</v>
-      </c>
-      <c r="D1" s="152" t="s">
-        <v>417</v>
       </c>
       <c r="E1" s="154" t="s">
         <v>8</v>
@@ -5439,22 +5418,22 @@
         <v>24</v>
       </c>
       <c r="V1" s="157" t="s">
+        <v>242</v>
+      </c>
+      <c r="W1" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="W1" s="158" t="s">
+      <c r="X1" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="159" t="s">
+      <c r="Y1" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="Y1" s="159" t="s">
-        <v>246</v>
-      </c>
       <c r="Z1" s="160" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA1" s="160" t="s">
         <v>418</v>
-      </c>
-      <c r="AA1" s="160" t="s">
-        <v>419</v>
       </c>
       <c r="AB1" s="161" t="s">
         <v>27</v>
@@ -5472,10 +5451,10 @@
         <v>31</v>
       </c>
       <c r="AG1" s="162" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH1" s="162" t="s">
         <v>420</v>
-      </c>
-      <c r="AH1" s="162" t="s">
-        <v>421</v>
       </c>
       <c r="AI1" s="162" t="s">
         <v>33</v>
@@ -5528,7 +5507,7 @@
     </row>
     <row r="2" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="77">
         <v>1</v>
@@ -5537,334 +5516,287 @@
         <v>57</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA2" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AE2" s="73" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AH2" s="151" t="s">
+        <v>423</v>
+      </c>
+      <c r="AI2" s="77" t="s">
         <v>424</v>
-      </c>
-      <c r="AI2" s="77" t="s">
-        <v>425</v>
       </c>
       <c r="AK2" s="77">
         <v>20</v>
       </c>
       <c r="AP2" s="77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AS2" s="77" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AT2" s="77" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" s="77">
         <v>2</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>63</v>
+        <v>451</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA3" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AE3" s="73" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="AH3" s="151" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AI3" s="77" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="AK3" s="77">
         <v>20</v>
       </c>
       <c r="AP3" s="77" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="AS3" s="77" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="AT3" s="77" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="77">
         <v>3</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA4" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE4" s="77" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AH4" s="151" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AS4" s="77" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AT4" s="77" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B5" s="77">
         <v>4</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA5" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AE5" s="77" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AH5" s="151" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AS5" s="77" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AT5" s="77" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" s="77">
         <v>5</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA6" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AE6" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AH6" s="151" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AS6" s="77" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AT6" s="77" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7" s="77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA7" s="77" t="s">
-        <v>437</v>
+        <v>426</v>
+      </c>
+      <c r="AA7" s="73" t="s">
+        <v>60</v>
       </c>
       <c r="AE7" s="77" t="s">
-        <v>452</v>
-      </c>
-      <c r="AH7" s="73" t="s">
-        <v>464</v>
-      </c>
-      <c r="AS7" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="AT7" s="77" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="AH7" s="151" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK7" s="77">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="169" t="s">
+        <v>444</v>
+      </c>
+      <c r="AT7" s="73" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="AA8" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AE8" s="77" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AH8" s="151" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AK8" s="77">
-        <v>10</v>
-      </c>
-      <c r="AS8" s="169" t="s">
-        <v>454</v>
-      </c>
-      <c r="AT8" s="73" t="s">
-        <v>455</v>
+        <v>13</v>
+      </c>
+      <c r="AS8" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="AT8" s="77" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B9" s="77">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AA9" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AE9" s="77" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AH9" s="151" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AK9" s="77">
         <v>13</v>
       </c>
-      <c r="AS9" s="77" t="s">
-        <v>456</v>
-      </c>
-      <c r="AT9" s="77" t="s">
-        <v>457</v>
+      <c r="AS9" s="73" t="s">
+        <v>447</v>
+      </c>
+      <c r="AT9" s="73" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" s="77">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="AA10" s="170" t="s">
-        <v>437</v>
+        <v>456</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA10" s="73" t="s">
+        <v>60</v>
       </c>
       <c r="AE10" s="77" t="s">
-        <v>453</v>
-      </c>
-      <c r="AH10" s="73" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
-        <v>423</v>
-      </c>
-      <c r="B11" s="77">
-        <v>10</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>449</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA11" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE11" s="77" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH10" s="151" t="s">
         <v>443</v>
       </c>
-      <c r="AH11" s="151" t="s">
-        <v>451</v>
-      </c>
-      <c r="AK11" s="77">
-        <v>13</v>
-      </c>
-      <c r="AS11" s="73" t="s">
-        <v>459</v>
-      </c>
-      <c r="AT11" s="73" t="s">
+      <c r="AS10" s="77" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="168" t="s">
-        <v>423</v>
-      </c>
-      <c r="B12" s="77">
-        <v>11</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA12" s="170" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE12" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="AH12" s="73" t="s">
-        <v>463</v>
-      </c>
-      <c r="AT12" s="73" t="s">
-        <v>432</v>
+      <c r="AT10" s="77" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AX11" xr:uid="{C621C402-B2C8-40EA-BB1E-33FF49755F07}"/>
+  <autoFilter ref="A1:AX9" xr:uid="{C621C402-B2C8-40EA-BB1E-33FF49755F07}"/>
   <conditionalFormatting sqref="AD2:AD1048576">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5895,45 +5827,45 @@
   <sheetData>
     <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="C1" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="D1" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="E1" s="144" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="144" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="146" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="117" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5944,13 +5876,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="94">
         <v>211</v>
@@ -5962,30 +5894,30 @@
     <row r="7" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="147"/>
       <c r="C7" s="146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="147"/>
       <c r="C8" s="146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="147"/>
       <c r="C9" s="146" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -5996,13 +5928,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -6013,13 +5945,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -6030,13 +5962,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -6048,33 +5980,33 @@
     <row r="14" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="147"/>
       <c r="C14" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="147"/>
       <c r="C15" s="146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="C16" s="146" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="147"/>
       <c r="C17" s="146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -6085,13 +6017,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19">
         <v>111</v>
@@ -6102,13 +6034,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20">
         <v>135</v>
@@ -6119,13 +6051,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21">
         <v>14</v>
@@ -6136,13 +6068,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -6153,13 +6085,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23">
         <v>92</v>
@@ -6170,38 +6102,38 @@
     </row>
     <row r="24" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="146" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="147"/>
       <c r="C26" s="146" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="147"/>
       <c r="C27" s="146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="147"/>
       <c r="C28" s="146" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -6212,49 +6144,49 @@
     </row>
     <row r="30" spans="1:5" s="148" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="149" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="142" t="s">
         <v>232</v>
-      </c>
-      <c r="B30" s="142" t="s">
-        <v>233</v>
       </c>
       <c r="C30" s="150"/>
       <c r="D30" s="142" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="147"/>
       <c r="C31" s="146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="147"/>
       <c r="C32" s="146" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="147"/>
       <c r="C33" s="146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="147"/>
       <c r="C34" s="146" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="94">
         <v>-10001</v>
@@ -6263,36 +6195,36 @@
         <v>2147483647</v>
       </c>
       <c r="F35" s="148" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J35" s="142"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B36" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="94">
         <v>-10002</v>
       </c>
       <c r="F36" s="148" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -6303,13 +6235,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>168</v>
@@ -6320,13 +6252,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39">
         <v>22</v>
@@ -6337,50 +6269,50 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" s="94" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D40" s="94">
         <v>-35</v>
       </c>
       <c r="G40" s="142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="146" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="146" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45">
         <v>41</v>
@@ -6391,37 +6323,37 @@
     </row>
     <row r="46" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="146" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="146" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="146" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="146" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6482,70 +6414,70 @@
       <c r="A1" s="46"/>
       <c r="B1" s="47"/>
       <c r="C1" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K1" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W1" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X1" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:270" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -6575,76 +6507,76 @@
     </row>
     <row r="3" spans="1:270" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="H3" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="J3" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="K3" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="L3" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="M3" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="N3" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="R3" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="S3" s="59" t="s">
+      <c r="T3" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="T3" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>242</v>
-      </c>
       <c r="V3" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W3" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:270" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -6706,16 +6638,16 @@
         <v>24</v>
       </c>
       <c r="T4" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="U4" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="V4" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="V4" s="103" t="s">
+      <c r="W4" s="103" t="s">
         <v>245</v>
-      </c>
-      <c r="W4" s="103" t="s">
-        <v>246</v>
       </c>
       <c r="X4" s="104" t="s">
         <v>25</v>
@@ -6790,39 +6722,39 @@
         <v>48</v>
       </c>
       <c r="AV4" s="116" t="s">
+        <v>246</v>
+      </c>
+      <c r="AW4" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="AW4" s="116" t="s">
+      <c r="AX4" s="116" t="s">
         <v>248</v>
       </c>
-      <c r="AX4" s="116" t="s">
+      <c r="AY4" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="AY4" s="116" t="s">
+      <c r="AZ4" s="116" t="s">
         <v>250</v>
       </c>
-      <c r="AZ4" s="116" t="s">
+      <c r="BA4" s="116" t="s">
         <v>251</v>
-      </c>
-      <c r="BA4" s="116" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:270" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="70">
         <v>457</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="72" t="s">
         <v>58</v>
@@ -6834,7 +6766,7 @@
         <v>50</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>50</v>
@@ -6870,7 +6802,7 @@
       <c r="W5" s="80"/>
       <c r="X5" s="86"/>
       <c r="Y5" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z5" s="71" t="s">
         <v>53</v>
@@ -6879,14 +6811,14 @@
         <v>54</v>
       </c>
       <c r="AB5" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC5" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD5" s="74"/>
       <c r="AE5" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF5" s="85" t="s">
         <v>62</v>
@@ -6915,19 +6847,19 @@
     </row>
     <row r="6" spans="1:270" s="69" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="132">
         <v>458</v>
       </c>
       <c r="C6" s="133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="133" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="134" t="s">
         <v>56</v>
@@ -6935,7 +6867,7 @@
       <c r="G6" s="134"/>
       <c r="H6" s="134"/>
       <c r="I6" s="134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J6" s="134"/>
       <c r="K6" s="134"/>
@@ -6955,7 +6887,7 @@
       <c r="W6" s="135"/>
       <c r="X6" s="136"/>
       <c r="Y6" s="133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z6" s="133" t="s">
         <v>53</v>
@@ -6964,14 +6896,14 @@
         <v>61</v>
       </c>
       <c r="AB6" s="133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC6" s="134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD6" s="137"/>
       <c r="AE6" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF6" s="138"/>
       <c r="AG6" s="139"/>
@@ -6998,31 +6930,31 @@
     </row>
     <row r="7" spans="1:270" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="70">
         <v>459</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="72" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I7" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="72" t="s">
         <v>50</v>
@@ -7067,17 +6999,17 @@
         <v>54</v>
       </c>
       <c r="AB7" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC7" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD7" s="74"/>
       <c r="AE7" s="84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF7" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG7" s="131"/>
       <c r="AH7" s="73"/>
@@ -7103,22 +7035,22 @@
     </row>
     <row r="8" spans="1:270" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="70">
         <v>464</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" s="71" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="72" t="s">
         <v>50</v>
@@ -7127,7 +7059,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J8" s="89">
         <v>0</v>
@@ -7142,10 +7074,10 @@
         <v>50</v>
       </c>
       <c r="N8" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="O8" s="72" t="s">
         <v>260</v>
-      </c>
-      <c r="O8" s="72" t="s">
-        <v>261</v>
       </c>
       <c r="P8" s="72" t="s">
         <v>50</v>
@@ -7172,17 +7104,17 @@
         <v>54</v>
       </c>
       <c r="AB8" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC8" s="73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD8" s="74"/>
       <c r="AE8" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF8" s="79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG8" s="131"/>
       <c r="AH8" s="73"/>
@@ -7208,19 +7140,19 @@
     </row>
     <row r="9" spans="1:270" s="128" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="70">
         <v>448</v>
       </c>
       <c r="C9" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="E9" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>147</v>
       </c>
       <c r="F9" s="72" t="s">
         <v>56</v>
@@ -7232,7 +7164,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="72" t="s">
         <v>50</v>
@@ -7267,10 +7199,10 @@
       <c r="V9" s="80"/>
       <c r="W9" s="80"/>
       <c r="X9" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z9" s="71" t="s">
         <v>53</v>
@@ -7279,14 +7211,14 @@
         <v>61</v>
       </c>
       <c r="AB9" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC9" s="73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD9" s="74"/>
       <c r="AE9" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF9" s="84" t="s">
         <v>62</v>
@@ -7305,10 +7237,10 @@
         <v>50</v>
       </c>
       <c r="AL9" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM9" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN9" s="77"/>
       <c r="AO9" s="77"/>
@@ -7544,31 +7476,31 @@
     </row>
     <row r="10" spans="1:270" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="70">
         <v>449</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>147</v>
       </c>
       <c r="F10" s="72" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="90" t="s">
+      <c r="I10" s="72" t="s">
         <v>151</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>152</v>
       </c>
       <c r="J10" s="72" t="s">
         <v>50</v>
@@ -7583,7 +7515,7 @@
         <v>50</v>
       </c>
       <c r="N10" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O10" s="72" t="s">
         <v>50</v>
@@ -7603,7 +7535,7 @@
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
       <c r="X10" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y10" s="71" t="s">
         <v>52</v>
@@ -7615,17 +7547,17 @@
         <v>55</v>
       </c>
       <c r="AB10" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC10" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD10" s="74"/>
       <c r="AE10" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF10" s="118" t="s">
         <v>156</v>
-      </c>
-      <c r="AF10" s="118" t="s">
-        <v>157</v>
       </c>
       <c r="AG10" s="75"/>
       <c r="AH10" s="72" t="s">
@@ -7641,10 +7573,10 @@
         <v>50</v>
       </c>
       <c r="AL10" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM10" s="73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN10" s="77"/>
       <c r="AO10" s="77"/>
@@ -7880,19 +7812,19 @@
     </row>
     <row r="11" spans="1:270" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="70">
         <v>450</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>147</v>
       </c>
       <c r="F11" s="90" t="s">
         <v>0</v>
@@ -7901,10 +7833,10 @@
         <v>50</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J11" s="72" t="s">
         <v>50</v>
@@ -7919,10 +7851,10 @@
         <v>50</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P11" s="72" t="s">
         <v>50</v>
@@ -7939,10 +7871,10 @@
       <c r="V11" s="80"/>
       <c r="W11" s="80"/>
       <c r="X11" s="78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="71" t="s">
         <v>53</v>
@@ -7951,36 +7883,36 @@
         <v>55</v>
       </c>
       <c r="AB11" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC11" s="73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD11" s="74"/>
       <c r="AE11" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF11" s="130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG11" s="75"/>
       <c r="AH11" s="81">
         <v>10</v>
       </c>
       <c r="AI11" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ11" s="82" t="s">
         <v>64</v>
-      </c>
-      <c r="AJ11" s="82" t="s">
-        <v>65</v>
       </c>
       <c r="AK11" s="82" t="s">
         <v>0</v>
       </c>
       <c r="AL11" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM11" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN11" s="77"/>
       <c r="AO11" s="77"/>
@@ -8216,19 +8148,19 @@
     </row>
     <row r="12" spans="1:270" s="128" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="70">
         <v>451</v>
       </c>
       <c r="C12" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>268</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>269</v>
       </c>
       <c r="F12" s="72" t="s">
         <v>56</v>
@@ -8240,7 +8172,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J12" s="72" t="s">
         <v>50</v>
@@ -8276,7 +8208,7 @@
       <c r="W12" s="80"/>
       <c r="X12" s="78"/>
       <c r="Y12" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="71" t="s">
         <v>53</v>
@@ -8285,14 +8217,14 @@
         <v>61</v>
       </c>
       <c r="AB12" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC12" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD12" s="74"/>
       <c r="AE12" s="73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF12" s="73" t="s">
         <v>62</v>
@@ -8311,10 +8243,10 @@
         <v>50</v>
       </c>
       <c r="AL12" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM12" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN12" s="77"/>
       <c r="AO12" s="77"/>
@@ -8550,31 +8482,31 @@
     </row>
     <row r="13" spans="1:270" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="70">
         <v>452</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13" s="72" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J13" s="72" t="s">
         <v>50</v>
@@ -8589,7 +8521,7 @@
         <v>50</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O13" s="72" t="s">
         <v>50</v>
@@ -8609,7 +8541,7 @@
       <c r="V13" s="80"/>
       <c r="W13" s="80"/>
       <c r="X13" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y13" s="73" t="s">
         <v>52</v>
@@ -8621,17 +8553,17 @@
         <v>55</v>
       </c>
       <c r="AB13" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC13" s="73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="74"/>
       <c r="AE13" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF13" s="91" t="s">
         <v>276</v>
-      </c>
-      <c r="AF13" s="91" t="s">
-        <v>277</v>
       </c>
       <c r="AG13" s="75"/>
       <c r="AH13" s="72" t="s">
@@ -8647,10 +8579,10 @@
         <v>50</v>
       </c>
       <c r="AL13" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM13" s="73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AN13" s="77"/>
       <c r="AO13" s="77"/>
@@ -8659,10 +8591,10 @@
       <c r="AR13" s="77"/>
       <c r="AS13" s="73"/>
       <c r="AT13" s="77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU13" s="77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV13" s="77"/>
       <c r="AW13" s="77"/>
@@ -8890,31 +8822,31 @@
     </row>
     <row r="14" spans="1:270" s="128" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" s="70">
         <v>453</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F14" s="72" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J14" s="72" t="s">
         <v>50</v>
@@ -8929,7 +8861,7 @@
         <v>50</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O14" s="72" t="s">
         <v>50</v>
@@ -8949,7 +8881,7 @@
       <c r="V14" s="80"/>
       <c r="W14" s="80"/>
       <c r="X14" s="88" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y14" s="73" t="s">
         <v>52</v>
@@ -8961,17 +8893,17 @@
         <v>55</v>
       </c>
       <c r="AB14" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC14" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD14" s="74"/>
       <c r="AE14" s="73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF14" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG14" s="75"/>
       <c r="AH14" s="72" t="s">
@@ -8987,10 +8919,10 @@
         <v>50</v>
       </c>
       <c r="AL14" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM14" s="73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AN14" s="77"/>
       <c r="AO14" s="77"/>
@@ -8999,10 +8931,10 @@
       <c r="AR14" s="77"/>
       <c r="AS14" s="73"/>
       <c r="AT14" s="77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU14" s="77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AV14" s="77"/>
       <c r="AW14" s="77"/>
@@ -9230,19 +9162,19 @@
     </row>
     <row r="15" spans="1:270" s="128" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" s="70">
         <v>454</v>
       </c>
       <c r="C15" s="71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F15" s="72" t="s">
         <v>56</v>
@@ -9251,10 +9183,10 @@
         <v>50</v>
       </c>
       <c r="H15" s="72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72" t="s">
@@ -9288,7 +9220,7 @@
       <c r="W15" s="80"/>
       <c r="X15" s="78"/>
       <c r="Y15" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z15" s="71" t="s">
         <v>53</v>
@@ -9297,14 +9229,14 @@
         <v>55</v>
       </c>
       <c r="AB15" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC15" s="73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD15" s="74"/>
       <c r="AE15" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF15" s="73" t="s">
         <v>62</v>
@@ -9323,10 +9255,10 @@
         <v>50</v>
       </c>
       <c r="AL15" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM15" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AN15" s="77"/>
       <c r="AO15" s="77"/>
@@ -9562,31 +9494,31 @@
     </row>
     <row r="16" spans="1:270" s="128" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="70">
         <v>455</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="72" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J16" s="72" t="s">
         <v>50</v>
@@ -9601,7 +9533,7 @@
         <v>50</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O16" s="72" t="s">
         <v>50</v>
@@ -9622,7 +9554,7 @@
       <c r="W16" s="80"/>
       <c r="X16" s="78"/>
       <c r="Y16" s="73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z16" s="71" t="s">
         <v>53</v>
@@ -9631,36 +9563,36 @@
         <v>55</v>
       </c>
       <c r="AB16" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC16" s="73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD16" s="74"/>
       <c r="AE16" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF16" s="79" t="s">
         <v>289</v>
-      </c>
-      <c r="AF16" s="79" t="s">
-        <v>290</v>
       </c>
       <c r="AG16" s="75"/>
       <c r="AH16" s="72" t="s">
         <v>50</v>
       </c>
       <c r="AI16" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" s="71" t="s">
         <v>50</v>
       </c>
       <c r="AK16" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AL16" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM16" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN16" s="77"/>
       <c r="AO16" s="77"/>
@@ -9896,31 +9828,31 @@
     </row>
     <row r="17" spans="1:270" s="128" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B17" s="70">
         <v>456</v>
       </c>
       <c r="C17" s="71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="72" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J17" s="72" t="s">
         <v>50</v>
@@ -9935,7 +9867,7 @@
         <v>50</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O17" s="72" t="s">
         <v>50</v>
@@ -9956,7 +9888,7 @@
       <c r="W17" s="80"/>
       <c r="X17" s="78"/>
       <c r="Y17" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z17" s="71" t="s">
         <v>53</v>
@@ -9965,36 +9897,36 @@
         <v>55</v>
       </c>
       <c r="AB17" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC17" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD17" s="74"/>
       <c r="AE17" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF17" s="79" t="s">
         <v>293</v>
-      </c>
-      <c r="AF17" s="79" t="s">
-        <v>294</v>
       </c>
       <c r="AG17" s="75"/>
       <c r="AH17" s="72" t="s">
         <v>50</v>
       </c>
       <c r="AI17" s="72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ17" s="71" t="s">
         <v>50</v>
       </c>
       <c r="AK17" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL17" s="76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM17" s="73" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AN17" s="77"/>
       <c r="AO17" s="77"/>
@@ -10329,149 +10261,149 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>297</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>298</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>301</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
         <v>307</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
         <v>307</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10479,18 +10411,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -10498,10 +10430,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -10509,10 +10441,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10520,7 +10452,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -10529,7 +10461,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -10538,7 +10470,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -10547,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -10556,10 +10488,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="122" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
@@ -10567,10 +10499,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="123" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -10578,7 +10510,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="122"/>
     </row>
@@ -10587,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="122"/>
     </row>
@@ -10596,7 +10528,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="122"/>
     </row>
@@ -10605,10 +10537,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -10616,7 +10548,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="122"/>
     </row>
@@ -10625,7 +10557,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="122"/>
     </row>
@@ -10634,7 +10566,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="122"/>
     </row>
@@ -10643,7 +10575,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="122"/>
     </row>
@@ -10652,7 +10584,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="122"/>
     </row>
@@ -10661,7 +10593,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="122"/>
     </row>
@@ -10670,7 +10602,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="122"/>
     </row>
@@ -10679,140 +10611,140 @@
         <v>4</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="122"/>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="124" t="s">
         <v>326</v>
-      </c>
-      <c r="B36" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="124" t="s">
         <v>326</v>
-      </c>
-      <c r="B37" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="124" t="s">
         <v>326</v>
-      </c>
-      <c r="B38" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="124" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="124" t="s">
         <v>326</v>
-      </c>
-      <c r="B39" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="124" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" s="127" t="s">
         <v>328</v>
       </c>
-      <c r="B40" s="127" t="s">
+      <c r="C40" s="124" t="s">
         <v>329</v>
-      </c>
-      <c r="C40" s="124" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" s="124" t="s">
         <v>331</v>
-      </c>
-      <c r="C41" s="124" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B42" s="127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C42" s="124" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="C43" t="s">
         <v>335</v>
-      </c>
-      <c r="C43" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" t="s">
         <v>337</v>
-      </c>
-      <c r="C44" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="121" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" t="s">
         <v>339</v>
-      </c>
-      <c r="C45" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B46" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
+        <v>342</v>
+      </c>
+      <c r="C47" t="s">
         <v>343</v>
-      </c>
-      <c r="C47" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -10849,90 +10781,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>297</v>
-      </c>
       <c r="C1" s="63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="K1" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="M1" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>354</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="123" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -10940,10 +10872,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="120" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -10951,10 +10883,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="120" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -10962,10 +10894,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -10973,10 +10905,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="120" t="s">
         <v>363</v>
-      </c>
-      <c r="D9" s="120" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -10984,10 +10916,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -10995,11 +10927,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -11007,11 +10939,11 @@
         <v>2</v>
       </c>
       <c r="B12" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="120"/>
       <c r="D12" s="124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -11019,11 +10951,11 @@
         <v>2</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="120"/>
       <c r="D13" s="124" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -11031,11 +10963,11 @@
         <v>2</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -11043,11 +10975,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="120"/>
       <c r="D15" s="124" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -11055,163 +10987,163 @@
         <v>2</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="120"/>
       <c r="D16" s="124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="120" t="s">
         <v>372</v>
-      </c>
-      <c r="B17" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="120" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="121" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="120" t="s">
         <v>372</v>
-      </c>
-      <c r="B18" s="121" t="s">
-        <v>374</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="D19" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B21" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B22" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="122" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -11234,111 +11166,111 @@
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T1" s="26"/>
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="27"/>
       <c r="X1" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="Y1" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD1" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE1" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AF1" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="AB1" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AG1" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AH1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL1" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="AG1" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AM1" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="AL1" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>398</v>
       </c>
       <c r="AP1" s="25"/>
       <c r="AS1" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11386,136 +11318,136 @@
     </row>
     <row r="3" spans="1:53" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="H3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="K3" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="L3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="M3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="N3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="S3" s="36" t="s">
+      <c r="T3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC3" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="T3" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC3" s="39" t="s">
-        <v>242</v>
-      </c>
       <c r="AD3" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG3" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH3" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI3" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ3" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK3" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL3" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM3" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN3" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="AE3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF3" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG3" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH3" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI3" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ3" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK3" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL3" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM3" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AO3" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="AO3" s="44" t="s">
+      <c r="AP3" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="AP3" s="45" t="s">
-        <v>403</v>
-      </c>
       <c r="AQ3" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR3" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS3" s="30"/>
       <c r="AT3" s="46"/>
@@ -11535,7 +11467,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -11586,22 +11518,22 @@
         <v>24</v>
       </c>
       <c r="T4" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="W4" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="X4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="Z4" s="13" t="s">
         <v>27</v>
@@ -11616,10 +11548,10 @@
         <v>30</v>
       </c>
       <c r="AD4" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE4" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="AF4" s="17" t="s">
         <v>33</v>
@@ -11661,7 +11593,7 @@
         <v>45</v>
       </c>
       <c r="AS4" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AT4" s="22" t="s">
         <v>47</v>
@@ -11670,22 +11602,22 @@
         <v>48</v>
       </c>
       <c r="AV4" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW4" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="AW4" s="23" t="s">
+      <c r="AX4" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="AX4" s="23" t="s">
+      <c r="AY4" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="AY4" s="23" t="s">
+      <c r="AZ4" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="AZ4" s="23" t="s">
+      <c r="BA4" s="23" t="s">
         <v>414</v>
-      </c>
-      <c r="BA4" s="23" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -11696,6 +11628,42 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
+    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <UserInfo>
+        <DisplayName>Tammy Sunderland</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A419301B98B8354A897828D82A6F00F6" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20ca8a0c0d59028efd0f33ef93e3a420">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e08ed28-a208-4db3-90dc-062006ce0c78" xmlns:ns3="7e386c18-d449-4d9a-a5df-f64c6139a3c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecc1aa61ba2aa3d92dc6750af3137611" ns2:_="" ns3:_="">
     <xsd:import namespace="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
@@ -12016,57 +11984,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
-    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <UserInfo>
-        <DisplayName>Tammy Sunderland</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827BF9C6-14B5-43FE-98BA-5537952370B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
-    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12089,9 +12010,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827BF9C6-14B5-43FE-98BA-5537952370B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
+    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/Client/SGBOutbound.xlsx
+++ b/src/test/resources/testdata/Client/SGBOutbound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72787C3-0F7D-4FDF-A05F-00FE4B2EF26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99A43F-D151-46A9-BC6D-ECD8FD8B4C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="E-App Wizard Spec" sheetId="34" r:id="rId1"/>
@@ -5297,63 +5297,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C621C402-B2C8-40EA-BB1E-33FF49755F07}">
   <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AS11" sqref="AS11"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="104.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="104.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="77" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="77" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="77" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="77" customWidth="1"/>
     <col min="8" max="8" width="19" style="77" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="77" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" style="77" customWidth="1"/>
     <col min="10" max="10" width="17" style="77" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="77" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="77" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="77" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="77" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="77" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="77" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" style="77" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="77" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="77" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="77" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" style="77" customWidth="1"/>
-    <col min="22" max="25" width="19.140625" style="77" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" style="77" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="77" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="77" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="77" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="77" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" style="77" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" style="77" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" style="77" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="77" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="77" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" style="77" customWidth="1"/>
+    <col min="22" max="25" width="19.109375" style="77" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="22" style="77" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.44140625" style="77" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3" style="77" customWidth="1"/>
-    <col min="29" max="30" width="3.28515625" style="77" customWidth="1"/>
-    <col min="31" max="31" width="25.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="77" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" style="77" customWidth="1"/>
-    <col min="34" max="34" width="67.140625" style="151" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="83.85546875" style="77" customWidth="1"/>
-    <col min="36" max="36" width="8.28515625" style="77" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" style="77" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" style="77" customWidth="1"/>
-    <col min="39" max="40" width="8.42578125" style="77" customWidth="1"/>
-    <col min="41" max="41" width="9.42578125" style="77" customWidth="1"/>
-    <col min="42" max="42" width="40.85546875" style="77" customWidth="1"/>
-    <col min="43" max="43" width="7.5703125" style="77" customWidth="1"/>
-    <col min="44" max="44" width="5.140625" style="77" customWidth="1"/>
-    <col min="45" max="45" width="51.28515625" style="77" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="96.28515625" style="77" customWidth="1"/>
-    <col min="47" max="47" width="19.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.85546875" style="77" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" style="77" customWidth="1"/>
-    <col min="50" max="50" width="41.85546875" style="77" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="77"/>
+    <col min="29" max="30" width="3.33203125" style="77" customWidth="1"/>
+    <col min="31" max="31" width="25.88671875" style="73" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.109375" style="77" customWidth="1"/>
+    <col min="33" max="33" width="25.109375" style="77" customWidth="1"/>
+    <col min="34" max="34" width="67.109375" style="151" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="83.88671875" style="77" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" style="77" customWidth="1"/>
+    <col min="37" max="37" width="8.109375" style="77" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" style="77" customWidth="1"/>
+    <col min="39" max="40" width="8.44140625" style="77" customWidth="1"/>
+    <col min="41" max="41" width="9.44140625" style="77" customWidth="1"/>
+    <col min="42" max="42" width="40.88671875" style="77" customWidth="1"/>
+    <col min="43" max="43" width="7.5546875" style="77" customWidth="1"/>
+    <col min="44" max="44" width="5.109375" style="77" customWidth="1"/>
+    <col min="45" max="45" width="51.33203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="96.33203125" style="77" customWidth="1"/>
+    <col min="47" max="47" width="19.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.88671875" style="77" customWidth="1"/>
+    <col min="49" max="49" width="18.44140625" style="77" customWidth="1"/>
+    <col min="50" max="50" width="41.88671875" style="77" customWidth="1"/>
+    <col min="51" max="16384" width="9.109375" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="152" t="s">
         <v>5</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>422</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>422</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="s">
         <v>422</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="168" t="s">
         <v>422</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>422</v>
       </c>
@@ -5668,12 +5668,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="168" t="s">
         <v>422</v>
       </c>
       <c r="B7" s="77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>439</v>
@@ -5700,12 +5700,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>422</v>
       </c>
       <c r="B8" s="77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="77" t="s">
         <v>440</v>
@@ -5732,12 +5732,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>422</v>
       </c>
       <c r="B9" s="77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>441</v>
@@ -5764,12 +5764,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="168" t="s">
         <v>422</v>
       </c>
       <c r="B10" s="77">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>456</v>
@@ -5816,16 +5816,16 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="143" t="s">
         <v>225</v>
       </c>
@@ -5842,22 +5842,22 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="146" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C3" s="146" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="146" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="117" t="s">
         <v>173</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>175</v>
       </c>
@@ -5891,25 +5891,25 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="147"/>
       <c r="C7" s="146" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="147"/>
       <c r="C8" s="146" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="147"/>
       <c r="C9" s="146" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>179</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>181</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>183</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>184</v>
       </c>
@@ -5977,31 +5977,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="147"/>
       <c r="C14" s="146" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="147"/>
       <c r="C15" s="146" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="147"/>
       <c r="C16" s="146" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="147"/>
       <c r="C17" s="146" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>185</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>187</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
         <v>189</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="77" t="s">
         <v>191</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
         <v>193</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>195</v>
       </c>
@@ -6100,35 +6100,35 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="146" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="146" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="147"/>
       <c r="C26" s="146" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="147"/>
       <c r="C27" s="146" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="147"/>
       <c r="C28" s="146" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="68" t="s">
         <v>230</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="148" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="148" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="149" t="s">
         <v>231</v>
       </c>
@@ -6154,31 +6154,31 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="147"/>
       <c r="C31" s="146" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="147"/>
       <c r="C32" s="146" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="147"/>
       <c r="C33" s="146" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="147"/>
       <c r="C34" s="146" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="77" t="s">
         <v>92</v>
       </c>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="J35" s="142"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="77" t="s">
         <v>201</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="77" t="s">
         <v>172</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="77" t="s">
         <v>204</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="77" t="s">
         <v>205</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="77" t="s">
         <v>208</v>
       </c>
@@ -6284,27 +6284,27 @@
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="146" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="146" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="146" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="146" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="77" t="s">
         <v>171</v>
       </c>
@@ -6321,37 +6321,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="146" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="146" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="146" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="146" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="146" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="51" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="146" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="146" t="s">
         <v>216</v>
       </c>
@@ -6369,48 +6369,48 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.140625" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="28" width="3.5546875" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="52" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="32" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="52" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="52" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="47"/>
       <c r="C1" s="29" t="s">
@@ -6480,7 +6480,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:270" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:270" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="29"/>
@@ -6505,7 +6505,7 @@
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
     </row>
-    <row r="3" spans="1:270" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" s="24" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>238</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:270" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:270" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="95" t="s">
         <v>5</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:270" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:270" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="141" t="s">
         <v>252</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="AZ5" s="77"/>
       <c r="BA5" s="77"/>
     </row>
-    <row r="6" spans="1:270" s="69" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:270" s="69" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="141" t="s">
         <v>252</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="AZ6" s="140"/>
       <c r="BA6" s="140"/>
     </row>
-    <row r="7" spans="1:270" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:270" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="141" t="s">
         <v>252</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="AZ7" s="77"/>
       <c r="BA7" s="77"/>
     </row>
-    <row r="8" spans="1:270" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:270" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="141" t="s">
         <v>252</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="AZ8" s="77"/>
       <c r="BA8" s="77"/>
     </row>
-    <row r="9" spans="1:270" s="128" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:270" s="128" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="141" t="s">
         <v>252</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="JI9"/>
       <c r="JJ9"/>
     </row>
-    <row r="10" spans="1:270" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:270" s="128" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="141" t="s">
         <v>252</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="JI10"/>
       <c r="JJ10"/>
     </row>
-    <row r="11" spans="1:270" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:270" s="128" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="141" t="s">
         <v>252</v>
       </c>
@@ -8146,7 +8146,7 @@
       <c r="JI11"/>
       <c r="JJ11"/>
     </row>
-    <row r="12" spans="1:270" s="128" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:270" s="128" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="141" t="s">
         <v>252</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="JI12"/>
       <c r="JJ12"/>
     </row>
-    <row r="13" spans="1:270" s="128" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:270" s="128" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="141" t="s">
         <v>252</v>
       </c>
@@ -8820,7 +8820,7 @@
       <c r="JI13"/>
       <c r="JJ13"/>
     </row>
-    <row r="14" spans="1:270" s="128" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:270" s="128" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="141" t="s">
         <v>252</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="JI14"/>
       <c r="JJ14"/>
     </row>
-    <row r="15" spans="1:270" s="128" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:270" s="128" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="141" t="s">
         <v>252</v>
       </c>
@@ -9492,7 +9492,7 @@
       <c r="JI15"/>
       <c r="JJ15"/>
     </row>
-    <row r="16" spans="1:270" s="128" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:270" s="128" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="141" t="s">
         <v>252</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="JI16"/>
       <c r="JJ16"/>
     </row>
-    <row r="17" spans="1:270" s="128" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:270" s="128" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="141" t="s">
         <v>252</v>
       </c>
@@ -10248,18 +10248,18 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="85.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>295</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="120" t="s">
         <v>95</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>306</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>306</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>311</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="73" t="s">
         <v>316</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="C24" s="122"/>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="C25" s="122"/>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10532,7 @@
       </c>
       <c r="C26" s="122"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="C28" s="122"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="C29" s="122"/>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="C30" s="122"/>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="C31" s="122"/>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C32" s="122"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="C33" s="122"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="C34" s="122"/>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="C35" s="122"/>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>325</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>325</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>325</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>327</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>327</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>333</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>333</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>333</v>
       </c>
@@ -10763,23 +10763,23 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>295</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>371</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>371</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>374</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>374</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>374</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>374</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>374</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>374</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>374</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>387</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>387</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>387</v>
       </c>
@@ -11126,22 +11126,22 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>387</v>
       </c>
@@ -11160,9 +11160,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:53" s="24" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" s="24" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
@@ -11273,7 +11273,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
@@ -11316,7 +11316,7 @@
       <c r="AP2" s="25"/>
       <c r="AS2" s="25"/>
     </row>
-    <row r="3" spans="1:53" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>238</v>
       </c>
@@ -11459,7 +11459,7 @@
       <c r="AZ3" s="46"/>
       <c r="BA3" s="46"/>
     </row>
-    <row r="4" spans="1:53" s="24" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" s="24" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -11628,42 +11628,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
-    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <UserInfo>
-        <DisplayName>Tammy Sunderland</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A419301B98B8354A897828D82A6F00F6" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20ca8a0c0d59028efd0f33ef93e3a420">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e08ed28-a208-4db3-90dc-062006ce0c78" xmlns:ns3="7e386c18-d449-4d9a-a5df-f64c6139a3c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecc1aa61ba2aa3d92dc6750af3137611" ns2:_="" ns3:_="">
     <xsd:import namespace="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
@@ -11984,10 +11948,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
+    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <UserInfo>
+        <DisplayName>Tammy Sunderland</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827BF9C6-14B5-43FE-98BA-5537952370B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
+    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12010,20 +12021,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827BF9C6-14B5-43FE-98BA-5537952370B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
-    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>